--- a/admin/laporan_peminjaman_.xlsx
+++ b/admin/laporan_peminjaman_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>ID Peminjaman</t>
   </si>
@@ -47,10 +47,16 @@
     <t>2024-03-07</t>
   </si>
   <si>
+    <t>dikembalikan</t>
+  </si>
+  <si>
     <t>Kambing Jantan</t>
   </si>
   <si>
     <t>Ubur Ubur Lembur</t>
+  </si>
+  <si>
+    <t>dipinjam</t>
   </si>
 </sst>
 </file>
@@ -434,22 +440,28 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
         <v>619</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -457,7 +469,7 @@
         <v>620</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -467,6 +479,9 @@
       </c>
       <c r="E4" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,16 +489,19 @@
         <v>621</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -491,7 +509,7 @@
         <v>622</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -501,6 +519,9 @@
       </c>
       <c r="E6" t="s">
         <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -508,7 +529,7 @@
         <v>623</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -518,6 +539,9 @@
       </c>
       <c r="E7" t="s">
         <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -536,13 +560,16 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
         <v>625</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -552,6 +579,9 @@
       </c>
       <c r="E9" t="s">
         <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
